--- a/collection sorting.xlsx
+++ b/collection sorting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandontravis/Development/pmm-config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandon.travis/Development/GitHub/pmm-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCA7301-C6D9-E042-81E7-CEEA88D4888D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DD3283-9560-0E44-B69E-8E06F37C1741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25100" yWindow="1920" windowWidth="28800" windowHeight="18880" xr2:uid="{2A0B42F6-3DD0-8A49-AE86-628E4C62E240}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{2A0B42F6-3DD0-8A49-AE86-628E4C62E240}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -885,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -898,6 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,7 +917,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1204,7 +1205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1212,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4654539F-081B-444E-9637-F644C7AA98BD}">
-  <dimension ref="A4:V125"/>
+  <dimension ref="A4:X125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
-      <selection activeCell="V51" sqref="V51"/>
+    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1226,7 +1227,7 @@
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>177</v>
       </c>
@@ -1240,7 +1241,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>184</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>230</v>
       </c>
@@ -1291,14 +1292,25 @@
       <c r="K6" s="5" t="s">
         <v>234</v>
       </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
       <c r="Q6" s="5" t="s">
         <v>234</v>
       </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
       <c r="V6" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1314,14 +1326,25 @@
       <c r="K7" s="6" t="s">
         <v>249</v>
       </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
       <c r="Q7" s="6" t="s">
         <v>249</v>
       </c>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
       <c r="V7" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1337,14 +1360,25 @@
       <c r="K8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8" t="s">
         <v>0</v>
       </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
       <c r="V8" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1360,14 +1394,25 @@
       <c r="K9" s="5" t="s">
         <v>178</v>
       </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
       <c r="Q9" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
       <c r="V9" s="5" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -1383,14 +1428,25 @@
       <c r="K10" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
       <c r="Q10" s="6" t="s">
         <v>250</v>
       </c>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
       <c r="V10" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1402,14 +1458,25 @@
       <c r="K11" s="5" t="s">
         <v>182</v>
       </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
       <c r="Q11" s="4" t="s">
         <v>235</v>
       </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
       <c r="V11" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1425,14 +1492,25 @@
       <c r="K12" s="4" t="s">
         <v>235</v>
       </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
       <c r="Q12" s="5" t="s">
         <v>230</v>
       </c>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
       <c r="V12" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+    </row>
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -1448,14 +1526,25 @@
       <c r="K13" s="6" t="s">
         <v>250</v>
       </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
       <c r="Q13" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
       <c r="V13" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+    </row>
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="E14" s="5" t="s">
@@ -1467,14 +1556,25 @@
       <c r="K14" s="5" t="s">
         <v>236</v>
       </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
       <c r="Q14" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
       <c r="V14" s="5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="E15" s="5" t="s">
@@ -1486,14 +1586,25 @@
       <c r="K15" s="6" t="s">
         <v>255</v>
       </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
       <c r="Q15" s="6" t="s">
         <v>251</v>
       </c>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
       <c r="V15" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>235</v>
       </c>
@@ -1509,14 +1620,25 @@
       <c r="K16" s="5" t="s">
         <v>230</v>
       </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
       <c r="Q16" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
       <c r="V16" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -1527,11 +1649,23 @@
       <c r="K17" s="5" t="s">
         <v>233</v>
       </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
       <c r="Q17" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -1547,11 +1681,23 @@
       <c r="K18" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
       <c r="Q18" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -1561,11 +1707,23 @@
       <c r="K19" s="5" t="s">
         <v>180</v>
       </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
       <c r="Q19" s="6" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -1575,9 +1733,21 @@
       <c r="K20" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -1593,8 +1763,21 @@
       <c r="K21" s="6" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -1610,11 +1793,23 @@
       <c r="K22" s="5" t="s">
         <v>179</v>
       </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
       <c r="Q22" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>246</v>
       </c>
@@ -1630,14 +1825,25 @@
       <c r="K23" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
       <c r="Q23" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
       <c r="V23" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
@@ -1653,14 +1859,25 @@
       <c r="K24" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
       <c r="Q24" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
       <c r="V24" s="5" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
@@ -1676,14 +1893,25 @@
       <c r="K25" s="5" t="s">
         <v>183</v>
       </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
       <c r="Q25" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
       <c r="V25" s="5" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
@@ -1693,14 +1921,25 @@
       <c r="K26" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
       <c r="Q26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
       <c r="V26" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1710,14 +1949,25 @@
       <c r="K27" s="6" t="s">
         <v>252</v>
       </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
       <c r="Q27" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
       <c r="V27" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -1727,14 +1977,25 @@
       <c r="K28" s="5" t="s">
         <v>181</v>
       </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
       <c r="Q28" s="4" t="s">
         <v>145</v>
       </c>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
       <c r="V28" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -1744,14 +2005,25 @@
       <c r="K29" s="5" t="s">
         <v>186</v>
       </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
       <c r="Q29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1761,14 +2033,25 @@
       <c r="K30" s="5" t="s">
         <v>237</v>
       </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
       <c r="Q30" s="4" t="s">
         <v>245</v>
       </c>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
       <c r="V30" s="5" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -1778,14 +2061,25 @@
       <c r="K31" s="6" t="s">
         <v>254</v>
       </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
       <c r="Q31" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
       <c r="V31" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,14 +2089,25 @@
       <c r="K32" s="6" t="s">
         <v>256</v>
       </c>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
       <c r="Q32" s="4" t="s">
         <v>246</v>
       </c>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
       <c r="V32" s="5" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -1812,14 +2117,25 @@
       <c r="K33" s="5" t="s">
         <v>189</v>
       </c>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
       <c r="Q33" s="4" t="s">
         <v>248</v>
       </c>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
       <c r="V33" s="5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -1829,14 +2145,25 @@
       <c r="K34" s="6" t="s">
         <v>257</v>
       </c>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
       <c r="Q34" s="4" t="s">
         <v>153</v>
       </c>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
       <c r="V34" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
@@ -1846,56 +2173,103 @@
       <c r="K35" s="6" t="s">
         <v>258</v>
       </c>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
       <c r="Q35" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
       <c r="V35" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
       <c r="Q36" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
       <c r="V36" s="4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
       <c r="Q37" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
       <c r="V37" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
       <c r="Q38" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
       <c r="V38" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="E39" s="5" t="s">
@@ -1904,14 +2278,26 @@
       <c r="F39" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
       <c r="Q39" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
       <c r="V39" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>32</v>
       </c>
@@ -1924,14 +2310,26 @@
       <c r="F40" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
       <c r="Q40" s="4" t="s">
         <v>156</v>
       </c>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
       <c r="V40" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>33</v>
       </c>
@@ -1944,14 +2342,26 @@
       <c r="F41" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
       <c r="Q41" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
       <c r="V41" s="4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>34</v>
       </c>
@@ -1964,14 +2374,26 @@
       <c r="F42" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
       <c r="Q42" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
       <c r="V42" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>35</v>
       </c>
@@ -1984,98 +2406,182 @@
       <c r="F43" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
       <c r="Q43" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
       <c r="V43" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
       <c r="Q44" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
       <c r="V44" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
       <c r="Q45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="V45" s="4" t="s">
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
       <c r="Q46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="V46" s="4" t="s">
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
       <c r="Q47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V47" s="5" t="s">
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
       <c r="Q48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V48" s="4" t="s">
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
       <c r="Q49" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="V49" s="4" t="s">
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2088,14 +2594,26 @@
       <c r="F50" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
       <c r="Q50" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="V50" s="4" t="s">
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2103,28 +2621,52 @@
         <v>96</v>
       </c>
       <c r="E51" s="1"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
       <c r="Q51" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="V51" s="4" t="s">
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
       <c r="Q52" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="V52" t="s">
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>45</v>
       </c>
@@ -2137,14 +2679,26 @@
       <c r="F53" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
       <c r="Q53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="V53" t="s">
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
@@ -2157,14 +2711,26 @@
       <c r="F54" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
       <c r="Q54" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="V54" t="s">
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2177,14 +2743,26 @@
       <c r="F55" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
       <c r="Q55" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V55" t="s">
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2197,11 +2775,24 @@
       <c r="F56" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V56" t="s">
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>49</v>
       </c>
@@ -2214,22 +2805,48 @@
       <c r="F57" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V57" t="s">
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V58" t="s">
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
@@ -2242,8 +2859,22 @@
       <c r="F59" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>143</v>
       </c>
@@ -2256,8 +2887,22 @@
       <c r="F60" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>144</v>
       </c>
@@ -2270,11 +2915,24 @@
       <c r="F61" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
       <c r="Q61" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>145</v>
       </c>
@@ -2287,11 +2945,24 @@
       <c r="F62" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
       <c r="Q62" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>147</v>
       </c>
@@ -2304,11 +2975,24 @@
       <c r="F63" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
       <c r="Q63" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>146</v>
       </c>
@@ -2321,11 +3005,24 @@
       <c r="F64" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
       <c r="Q64" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>148</v>
       </c>
@@ -2338,8 +3035,22 @@
       <c r="F65" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>149</v>
       </c>
@@ -2352,8 +3063,22 @@
       <c r="F66" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>150</v>
       </c>
@@ -2366,8 +3091,22 @@
       <c r="F67" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>151</v>
       </c>
@@ -2380,8 +3119,22 @@
       <c r="F68" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>152</v>
       </c>
@@ -2394,8 +3147,22 @@
       <c r="F69" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>153</v>
       </c>
@@ -2408,8 +3175,22 @@
       <c r="F70" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>154</v>
       </c>
@@ -2422,8 +3203,22 @@
       <c r="F71" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>155</v>
       </c>
@@ -2436,8 +3231,22 @@
       <c r="F72" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>156</v>
       </c>
@@ -2450,8 +3259,22 @@
       <c r="F73" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>157</v>
       </c>
@@ -2464,8 +3287,22 @@
       <c r="F74" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>158</v>
       </c>
@@ -2478,8 +3315,22 @@
       <c r="F75" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>159</v>
       </c>
@@ -2492,8 +3343,22 @@
       <c r="F76" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>160</v>
       </c>
@@ -2506,8 +3371,22 @@
       <c r="F77" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>161</v>
       </c>
@@ -2520,8 +3399,22 @@
       <c r="F78" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>162</v>
       </c>
@@ -2534,8 +3427,22 @@
       <c r="F79" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
@@ -2548,8 +3455,22 @@
       <c r="F80" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>164</v>
       </c>
@@ -2562,8 +3483,22 @@
       <c r="F81" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="8"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>165</v>
       </c>
@@ -2576,8 +3511,22 @@
       <c r="F82" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="8"/>
+      <c r="X82" s="8"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>166</v>
       </c>
@@ -2590,8 +3539,22 @@
       <c r="F83" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="8"/>
+      <c r="W83" s="8"/>
+      <c r="X83" s="8"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="E84" s="1" t="s">
@@ -2600,8 +3563,22 @@
       <c r="F84" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="8"/>
+      <c r="W84" s="8"/>
+      <c r="X84" s="8"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>167</v>
       </c>
@@ -2614,160 +3591,440 @@
       <c r="F85" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="8"/>
+      <c r="X85" s="8"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
+      <c r="W86" s="8"/>
+      <c r="X86" s="8"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="8"/>
+      <c r="X87" s="8"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="8"/>
+      <c r="X88" s="8"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="8"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="8"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="8"/>
+      <c r="W91" s="8"/>
+      <c r="X91" s="8"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="8"/>
+      <c r="X92" s="8"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E93" s="5" t="s">
         <v>223</v>
       </c>
       <c r="F93" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
+      <c r="W93" s="8"/>
+      <c r="X93" s="8"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E94" s="5" t="s">
         <v>224</v>
       </c>
       <c r="F94" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="8"/>
+      <c r="V94" s="8"/>
+      <c r="W94" s="8"/>
+      <c r="X94" s="8"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E95" s="5" t="s">
         <v>225</v>
       </c>
       <c r="F95" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="8"/>
+      <c r="W95" s="8"/>
+      <c r="X95" s="8"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E96" s="5" t="s">
         <v>193</v>
       </c>
       <c r="F96" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="8"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="8"/>
+      <c r="X96" s="8"/>
+    </row>
+    <row r="97" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E97" s="5" t="s">
         <v>194</v>
       </c>
       <c r="F97" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="W97" s="8"/>
+      <c r="X97" s="8"/>
+    </row>
+    <row r="98" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E98" s="5" t="s">
         <v>195</v>
       </c>
       <c r="F98" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="8"/>
+      <c r="W98" s="8"/>
+      <c r="X98" s="8"/>
+    </row>
+    <row r="99" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E99" s="5" t="s">
         <v>196</v>
       </c>
       <c r="F99" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="8"/>
+      <c r="W99" s="8"/>
+      <c r="X99" s="8"/>
+    </row>
+    <row r="100" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E100" s="5" t="s">
         <v>197</v>
       </c>
       <c r="F100" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="8"/>
+      <c r="R100" s="8"/>
+      <c r="S100" s="8"/>
+      <c r="T100" s="8"/>
+      <c r="U100" s="8"/>
+      <c r="V100" s="8"/>
+      <c r="W100" s="8"/>
+      <c r="X100" s="8"/>
+    </row>
+    <row r="101" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E101" s="5" t="s">
         <v>198</v>
       </c>
       <c r="F101" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="8"/>
+      <c r="R101" s="8"/>
+      <c r="S101" s="8"/>
+      <c r="T101" s="8"/>
+      <c r="U101" s="8"/>
+      <c r="V101" s="8"/>
+      <c r="W101" s="8"/>
+      <c r="X101" s="8"/>
+    </row>
+    <row r="102" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E102" s="5" t="s">
         <v>199</v>
       </c>
       <c r="F102" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="8"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="8"/>
+      <c r="W102" s="8"/>
+      <c r="X102" s="8"/>
+    </row>
+    <row r="103" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E103" t="s">
         <v>200</v>
       </c>
       <c r="F103" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="8"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="8"/>
+      <c r="T103" s="8"/>
+      <c r="U103" s="8"/>
+      <c r="V103" s="8"/>
+      <c r="W103" s="8"/>
+      <c r="X103" s="8"/>
+    </row>
+    <row r="104" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E104" t="s">
         <v>201</v>
       </c>
       <c r="F104" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="8"/>
+      <c r="R104" s="8"/>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="8"/>
+      <c r="V104" s="8"/>
+      <c r="W104" s="8"/>
+      <c r="X104" s="8"/>
+    </row>
+    <row r="105" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E105" s="5" t="s">
         <v>202</v>
       </c>
@@ -2775,7 +4032,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E106" s="5" t="s">
         <v>203</v>
       </c>
@@ -2783,7 +4040,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E107" t="s">
         <v>204</v>
       </c>
@@ -2791,7 +4048,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E108" t="s">
         <v>205</v>
       </c>
@@ -2799,7 +4056,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E109" t="s">
         <v>206</v>
       </c>
@@ -2807,7 +4064,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E110" t="s">
         <v>207</v>
       </c>
@@ -2815,7 +4072,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E111" s="5" t="s">
         <v>208</v>
       </c>
@@ -2823,7 +4080,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E112" t="s">
         <v>209</v>
       </c>
